--- a/BalanceSheet/RTX_bal.xlsx
+++ b/BalanceSheet/RTX_bal.xlsx
@@ -4968,7 +4968,7 @@
         <v>40444000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>38958000000.0</v>
+        <v>38315000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>37263000000.0</v>
@@ -5095,7 +5095,7 @@
         <v>48445000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>46336000000.0</v>
+        <v>43252000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>44604000000.0</v>
